--- a/SAC/BFDs/CONFIG 0/Summary.xlsx
+++ b/SAC/BFDs/CONFIG 0/Summary.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Programming\AI, Ml, data\Chem Eng RL\DistillationTrain-Gym\SAC\BFDs\CONFIG 0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A339C4-08EC-4143-9A81-9C0301B168C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2016A56-F957-4585-A825-5058D3FCE9E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Best" sheetId="1" r:id="rId1"/>
+    <sheet name="early" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>Compounds</t>
   </si>
@@ -91,7 +92,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -124,7 +125,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -408,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16:G17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -706,4 +707,311 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0896F0D6-7FA0-4FE6-8B8C-2A5AD7440E32}">
+  <dimension ref="A1:J20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J2">
+        <v>34.85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>16.71</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>3.75714E-3</v>
+      </c>
+      <c r="G3">
+        <f>F3*C3*3600*8000/1000000</f>
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1109.71</v>
+      </c>
+      <c r="C4">
+        <f>721+96+212</f>
+        <v>1029</v>
+      </c>
+      <c r="D4" s="1">
+        <f>C4/B4</f>
+        <v>0.92726928657036523</v>
+      </c>
+      <c r="F4">
+        <v>8.9947699999999992E-3</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G8" si="0">F4*C4*3600*8000/1000000</f>
+        <v>266.56180790399998</v>
+      </c>
+      <c r="J4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1197.6199999999999</v>
+      </c>
+      <c r="C5">
+        <f>128+466</f>
+        <v>594</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:D8" si="1">C5/B5</f>
+        <v>0.49598370100699724</v>
+      </c>
+      <c r="F5">
+        <v>1.5789270000000001E-2</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>270.110199744</v>
+      </c>
+      <c r="J5">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>515.75</v>
+      </c>
+      <c r="C6">
+        <f>302+2</f>
+        <v>304</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.58943286476005818</v>
+      </c>
+      <c r="F6">
+        <v>1.445106E-2</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>126.52192051200001</v>
+      </c>
+      <c r="J6">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>344.28</v>
+      </c>
+      <c r="C7">
+        <f>72+72</f>
+        <v>144</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.41826420355524574</v>
+      </c>
+      <c r="F7">
+        <v>3.9296600000000001E-2</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>162.97085952</v>
+      </c>
+      <c r="J7">
+        <v>14.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>173.14</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>3.9296600000000001E-2</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>6.51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <f>SUM(G3:G8)</f>
+        <v>826.16478768000002</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J11">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.98854655720864004</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="F16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="2">
+        <f>G10</f>
+        <v>826.16478768000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.97311334146056361</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="F17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="2">
+        <f>J17</f>
+        <v>670.78</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <f>SUM(J2:J14)</f>
+        <v>670.78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>0.91148812409112945</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0.9962820959683979</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
+        <v>0.97031304146933128</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>